--- a/00_dev_environment/00_Ethereum_devenv_setting.xlsx
+++ b/00_dev_environment/00_Ethereum_devenv_setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27975" windowHeight="12495" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27975" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="설치" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>1. Local Chaindata 저장할 위치 생성</t>
   </si>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>https://metamask.io/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nodejs.org/ko/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,12 +345,78 @@
 geth --identity ~~    -&gt; LocalPrivateChain구축 sheet참조 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://nodejs.org/ko/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nodejs 설치후
+1. live-server설치 : cmd창에서   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm install live-server -g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. live-server기동 : cmd창에서  웹어플리케이션 rootcontext(ex. 로컬 alladd.github.io 디렉토리이동)
+                          이동 후      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> live-server 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. 크롬브라우저에서 : 127.0.0.1:8080/xxxx.html  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬 웹서버
+(페이지변경시 자동reload)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +458,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -443,7 +512,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,6 +533,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -968,8 +1049,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="115.5">
-      <c r="A2" s="6" t="s">
-        <v>37</v>
+      <c r="A2" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
@@ -978,11 +1059,11 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
@@ -994,7 +1075,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="33">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1006,116 +1087,137 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="49.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="82.5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="49.5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D12" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1126,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1143,7 +1245,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1228,7 +1330,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1238,7 +1340,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="2:2" ht="18.75">

--- a/00_dev_environment/00_Ethereum_devenv_setting.xlsx
+++ b/00_dev_environment/00_Ethereum_devenv_setting.xlsx
@@ -534,9 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +542,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1037,7 +1037,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1049,7 +1049,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="115.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1063,7 +1063,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33">
-      <c r="A3" s="7"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1075,7 +1075,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="33">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1087,7 +1087,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5">
-      <c r="A9" s="7"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5">
-      <c r="A10" s="7"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
@@ -1160,17 +1160,17 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>

--- a/00_dev_environment/00_Ethereum_devenv_setting.xlsx
+++ b/00_dev_environment/00_Ethereum_devenv_setting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>1. Local Chaindata 저장할 위치 생성</t>
   </si>
@@ -351,6 +351,19 @@
   </si>
   <si>
     <t>live-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬 웹서버
+(페이지변경시 자동reload)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testrpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이더리움네트워크 가상 로컬구축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,8 +420,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로컬 웹서버
-(페이지변경시 자동reload)</t>
+    <t xml:space="preserve">체인톡 게시물 참조설치
+나도 dApp 개발 | 나도 dApp 개발해보자 (6) - TestRPC 활용
+nodejs 설치후
+1. git (https://git-scm.com/download/win )
+2. vc빌드툴( http://landinghub.visualstudio.com/visual-cpp-build-tools )
+3. VC command 창에서 
+   npm install -g –production windows-build-tools 
+   npm install -g ethereumjs-testrpc
+   npm install web3   ( 1.0 beta 오류있으므로 npm install web3@^0.20.0 로 설치 대체)
+   npm install solc  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,17 +1055,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="86.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,75 +1161,87 @@
         <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="181.5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="49.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="49.5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1216,8 +1249,8 @@
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D7" r:id="rId3"/>
     <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D15" r:id="rId5"/>
-    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="D16" r:id="rId5"/>
+    <hyperlink ref="D14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/00_dev_environment/00_Ethereum_devenv_setting.xlsx
+++ b/00_dev_environment/00_Ethereum_devenv_setting.xlsx
@@ -326,9 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://atom.io/</t>
-  </si>
-  <si>
     <t>atom editor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,6 +427,11 @@
    npm install -g ethereumjs-testrpc
    npm install web3   ( 1.0 beta 오류있으므로 npm install web3@^0.20.0 로 설치 대체)
    npm install solc  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://atom.io/
+welcome guide -&gt; open installer -&gt; etheratom package 설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +535,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,6 +568,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1080,7 +1085,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33">
@@ -1152,78 +1157,78 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="181.5">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="49.5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:4" ht="49.5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1240,8 +1245,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1250,10 +1255,11 @@
     <hyperlink ref="D7" r:id="rId3"/>
     <hyperlink ref="D8" r:id="rId4"/>
     <hyperlink ref="D16" r:id="rId5"/>
-    <hyperlink ref="D14" r:id="rId6"/>
+    <hyperlink ref="D15" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/00_dev_environment/00_Ethereum_devenv_setting.xlsx
+++ b/00_dev_environment/00_Ethereum_devenv_setting.xlsx
@@ -431,7 +431,7 @@
   </si>
   <si>
     <t>https://atom.io/
-welcome guide -&gt; open installer -&gt; etheratom package 설치</t>
+welcome guide -&gt; open installer -&gt; etheratom, language-ethereum package 설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,11 +566,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1075,7 +1075,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="115.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1089,7 +1089,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="33">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1113,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1161,7 +1161,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="181.5">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -1185,19 +1185,19 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="33">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
@@ -1215,12 +1215,12 @@
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1232,7 +1232,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
